--- a/registri.xlsx
+++ b/registri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camozzicloud-my.sharepoint.com/personal/mpasseri_fonderiemoragavardo_it/Documents/Documenti/VSCode/EnergyMeters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500F4B5C-7EA7-4DBE-B0B3-EDDC724B99A9}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE09D1A-B71B-4521-BAB4-C3ACB01798B9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Registro</t>
   </si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Power Factor line 1</t>
+  </si>
+  <si>
+    <t>Power Factor line 2</t>
+  </si>
+  <si>
+    <t>Power Factor line 3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Currents</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Voltages</t>
+  </si>
+  <si>
+    <t>Power Factors</t>
   </si>
 </sst>
 </file>
@@ -106,14 +133,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +178,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -465,189 +489,280 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>375</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>377</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>379</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>273</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>367</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>369</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>371</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>409</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>411</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>413</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/registri.xlsx
+++ b/registri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camozzicloud-my.sharepoint.com/personal/mpasseri_fonderiemoragavardo_it/Documents/Documenti/VSCode/EnergyMeters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE09D1A-B71B-4521-BAB4-C3ACB01798B9}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F089631D-C57C-452A-929F-7B3357950345}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -172,14 +172,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -491,14 +496,14 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.7265625" customWidth="1"/>
     <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
@@ -511,7 +516,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
@@ -534,7 +539,7 @@
       <c r="B2" s="2">
         <v>375</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
@@ -557,7 +562,7 @@
       <c r="B3" s="2">
         <v>377</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -580,10 +585,10 @@
       <c r="B4" s="2">
         <v>379</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
@@ -603,7 +608,7 @@
       <c r="B5" s="2">
         <v>273</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -626,10 +631,10 @@
       <c r="B6" s="1">
         <v>367</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -649,7 +654,7 @@
       <c r="B7" s="1">
         <v>369</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -672,7 +677,7 @@
       <c r="B8" s="1">
         <v>371</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
@@ -695,7 +700,7 @@
       <c r="B9" s="1">
         <v>409</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
@@ -718,7 +723,7 @@
       <c r="B10" s="1">
         <v>411</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
@@ -741,7 +746,7 @@
       <c r="B11" s="1">
         <v>413</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">

--- a/registri.xlsx
+++ b/registri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camozzicloud-my.sharepoint.com/personal/mpasseri_fonderiemoragavardo_it/Documents/Documenti/VSCode/EnergyMeters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F089631D-C57C-452A-929F-7B3357950345}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E346C80-72E8-496F-83E5-34D800CA6BC9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Registro</t>
   </si>
@@ -73,15 +73,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>RMS star voltage L1-N [V]</t>
-  </si>
-  <si>
-    <t>RMS star voltage L2-N [V]</t>
-  </si>
-  <si>
-    <t>RMS star voltage L3-N [V]</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -110,6 +101,12 @@
   </si>
   <si>
     <t>Power Factors</t>
+  </si>
+  <si>
+    <t>RMS star avg value voltage [V]</t>
+  </si>
+  <si>
+    <t>RMS line avg value voltage [V]</t>
   </si>
 </sst>
 </file>
@@ -200,10 +197,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -540,7 +533,7 @@
         <v>375</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -563,7 +556,7 @@
         <v>377</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -586,7 +579,7 @@
         <v>379</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -609,7 +602,7 @@
         <v>273</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -629,22 +622,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -652,22 +645,22 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -675,22 +668,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -698,22 +691,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -721,50 +714,27 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>413</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/registri.xlsx
+++ b/registri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camozzicloud-my.sharepoint.com/personal/mpasseri_fonderiemoragavardo_it/Documents/Documenti/VSCode/EnergyMeters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E346C80-72E8-496F-83E5-34D800CA6BC9}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_BC64CBAD6A0688C7786EA83F6BED1CB598A89336" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0034279B-E31C-4D88-A78C-45E92CBBDA43}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Registro</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>RMS line avg value voltage [V]</t>
+  </si>
+  <si>
+    <t>RMS sum active power [W]</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>1/1000</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>1/10000</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Transducer ratio</t>
   </si>
 </sst>
 </file>
@@ -169,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +206,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -197,6 +222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,10 +516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +531,7 @@
     <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -524,8 +553,11 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -547,8 +579,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -570,8 +605,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -593,8 +631,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -616,8 +657,11 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -639,8 +683,11 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -662,8 +709,11 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -685,8 +735,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -708,8 +761,11 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -731,10 +787,69 @@
       <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>389</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/registri.xlsx
+++ b/registri.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Report</t>
   </si>
@@ -94,25 +94,34 @@
     <t>Voltages</t>
   </si>
   <si>
+    <t>RMS line voltage L1-L2 [V]</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>RMS line voltage L2-L3 [V]</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>RMS line voltage L3-L1 [V]</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
     <t>RMS star voltage L1-N [V]</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>RMS star voltage L2-N [V]</t>
   </si>
   <si>
-    <t>V2</t>
-  </si>
-  <si>
     <t>RMS star voltage L3-N [V]</t>
-  </si>
-  <si>
-    <t>V3</t>
   </si>
   <si>
     <t>Power Factors</t>
@@ -144,19 +153,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -203,20 +206,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,23 +523,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="39.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +572,7 @@
       <c r="B2" s="4">
         <v>375</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -595,7 +598,7 @@
       <c r="B3" s="4">
         <v>377</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -621,7 +624,7 @@
       <c r="B4" s="4">
         <v>379</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -647,7 +650,7 @@
       <c r="B5" s="4">
         <v>273</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -666,11 +669,11 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>367</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -692,11 +695,11 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>369</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -718,11 +721,11 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>371</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -748,78 +751,156 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>409</v>
+      <c r="B9" s="5">
+        <v>359</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>411</v>
+      <c r="B10" s="5">
+        <v>361</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
+        <v>363</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>409</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>411</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4">
         <v>413</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
